--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="870">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="870">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30753,7 +30753,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30804,7 +30804,7 @@
         <v>90</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>90</v>
@@ -30816,7 +30816,7 @@
         <v>90</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>90</v>
@@ -30843,7 +30843,7 @@
         <v>90</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
@@ -30991,7 +30991,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>90</v>
@@ -32163,10 +32163,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32181,7 +32181,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32250,7 +32250,7 @@
         <v>90</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -33091,7 +33091,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -33124,7 +33124,7 @@
         <v>90</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="T22" s="5" t="s">
         <v>90</v>
@@ -33133,7 +33133,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33163,7 +33163,7 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
@@ -33175,7 +33175,7 @@
         <v>90</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="AK22" s="5" t="s">
         <v>90</v>
@@ -33424,61 +33424,61 @@
         <v>90</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33487,10 +33487,10 @@
         <v>90</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33505,31 +33505,31 @@
         <v>90</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="AJ25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26">
@@ -33555,7 +33555,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>90</v>
@@ -33609,7 +33609,7 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>90</v>
@@ -33639,7 +33639,7 @@
         <v>90</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>90</v>
@@ -33728,7 +33728,7 @@
         <v>90</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB27" s="5" t="s">
         <v>90</v>
@@ -33772,70 +33772,70 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33847,31 +33847,31 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>90</v>
@@ -35045,115 +35045,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40">
@@ -35161,115 +35161,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35277,115 +35277,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>98</v>
+        <v>313</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>98</v>
+        <v>368</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>98</v>
+        <v>431</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>98</v>
+        <v>461</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>98</v>
+        <v>493</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>98</v>
+        <v>510</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>98</v>
+        <v>539</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>98</v>
+        <v>559</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>98</v>
+        <v>589</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>98</v>
+        <v>624</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>98</v>
+        <v>652</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>98</v>
+        <v>667</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>98</v>
+        <v>693</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>98</v>
+        <v>725</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>98</v>
+        <v>740</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>98</v>
+        <v>771</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>98</v>
+        <v>804</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>98</v>
+        <v>836</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>98</v>
+        <v>859</v>
       </c>
     </row>
     <row r="42">
